--- a/data/case1/5/P_device_1.xlsx
+++ b/data/case1/5/P_device_1.xlsx
@@ -53,43 +53,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.012891165401505885</v>
+        <v>-0.054903960755485183</v>
       </c>
       <c r="B1" s="0">
-        <v>0.012891164294785599</v>
+        <v>0.054903959603718869</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.021196972195724688</v>
+        <v>0.00086117497391254428</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.021196973193277922</v>
+        <v>-0.00086117617994392257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.076001836843484827</v>
+        <v>0.051609866532770138</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.07600183788602087</v>
+        <v>-0.051609867650524208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.021537755844500357</v>
+        <v>-0.00103032467429528</v>
       </c>
       <c r="B4" s="0">
-        <v>0.021537754714359092</v>
+        <v>0.0010303234735734512</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0022349221768628125</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.0022349234564464681</v>
       </c>
     </row>
   </sheetData>
